--- a/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.07474004805015</v>
+        <v>13.62566823774726</v>
       </c>
       <c r="C2">
-        <v>13.46315291405887</v>
+        <v>7.523778912982117</v>
       </c>
       <c r="D2">
-        <v>3.744146155390454</v>
+        <v>7.402513861104905</v>
       </c>
       <c r="E2">
-        <v>9.302703671669265</v>
+        <v>10.96402548984528</v>
       </c>
       <c r="F2">
-        <v>39.81221630786577</v>
+        <v>24.68680345190024</v>
       </c>
       <c r="G2">
-        <v>2.1005259012217</v>
+        <v>2.110173047428472</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.779901821657276</v>
+        <v>6.438188939331027</v>
       </c>
       <c r="K2">
-        <v>17.43287728654139</v>
+        <v>12.02575376253557</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.94964056996383</v>
+        <v>17.68118112648221</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.64711071749669</v>
+        <v>12.72132264860648</v>
       </c>
       <c r="C3">
-        <v>12.5086468789264</v>
+        <v>7.143023234361916</v>
       </c>
       <c r="D3">
-        <v>3.605066432303474</v>
+        <v>7.016060254094556</v>
       </c>
       <c r="E3">
-        <v>8.92795835736017</v>
+        <v>10.47813584037576</v>
       </c>
       <c r="F3">
-        <v>38.33906911900556</v>
+        <v>24.41108444314473</v>
       </c>
       <c r="G3">
-        <v>2.111257499337175</v>
+        <v>2.115508011771101</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.653594559515639</v>
+        <v>6.334966555388946</v>
       </c>
       <c r="K3">
-        <v>16.20010254722323</v>
+        <v>11.30893171088385</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>28.02776564840351</v>
+        <v>17.72395402126905</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72605960636053</v>
+        <v>12.13365584509354</v>
       </c>
       <c r="C4">
-        <v>11.8922125931992</v>
+        <v>6.898587248078485</v>
       </c>
       <c r="D4">
-        <v>3.518528901049693</v>
+        <v>6.770511720278673</v>
       </c>
       <c r="E4">
-        <v>8.697453955033076</v>
+        <v>10.17426005685252</v>
       </c>
       <c r="F4">
-        <v>37.44818999081203</v>
+        <v>24.2623411997923</v>
       </c>
       <c r="G4">
-        <v>2.117989810991173</v>
+        <v>2.118883398850025</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.579931178507044</v>
+        <v>6.274328235412971</v>
       </c>
       <c r="K4">
-        <v>15.40380708929657</v>
+        <v>10.8452750955132</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.47692770985125</v>
+        <v>17.765531923872</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.33940389544586</v>
+        <v>11.88598870864411</v>
       </c>
       <c r="C5">
-        <v>11.63325454467046</v>
+        <v>6.796360090464142</v>
       </c>
       <c r="D5">
-        <v>3.483029529627685</v>
+        <v>6.668483827547083</v>
       </c>
       <c r="E5">
-        <v>8.603522584099057</v>
+        <v>10.04921320948237</v>
       </c>
       <c r="F5">
-        <v>37.08881322044855</v>
+        <v>24.2067943269093</v>
       </c>
       <c r="G5">
-        <v>2.120771921384852</v>
+        <v>2.120284588369511</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.55087880856436</v>
+        <v>6.250317934076303</v>
       </c>
       <c r="K5">
-        <v>15.0692604524151</v>
+        <v>10.65044701242642</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.25634076226269</v>
+        <v>17.7861659972287</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.27451273917686</v>
+        <v>11.84436805418477</v>
       </c>
       <c r="C6">
-        <v>11.58978291506718</v>
+        <v>6.779229298039438</v>
       </c>
       <c r="D6">
-        <v>3.477122370821165</v>
+        <v>6.651427229152837</v>
       </c>
       <c r="E6">
-        <v>8.587928752540602</v>
+        <v>10.02838153580097</v>
       </c>
       <c r="F6">
-        <v>37.02936777753841</v>
+        <v>24.19787365907964</v>
       </c>
       <c r="G6">
-        <v>2.121236296329122</v>
+        <v>2.120518824224361</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.54611267655231</v>
+        <v>6.24637363471931</v>
       </c>
       <c r="K6">
-        <v>15.01309801391809</v>
+        <v>10.61774178062328</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.2199490649764</v>
+        <v>17.78981053412324</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72089103090545</v>
+        <v>12.13034892670182</v>
       </c>
       <c r="C7">
-        <v>11.88875175316458</v>
+        <v>6.897219085032572</v>
       </c>
       <c r="D7">
-        <v>3.518051020139336</v>
+        <v>6.769143526863718</v>
       </c>
       <c r="E7">
-        <v>8.696187010706407</v>
+        <v>10.17257829915962</v>
       </c>
       <c r="F7">
-        <v>37.44332814017691</v>
+        <v>24.26157170076197</v>
       </c>
       <c r="G7">
-        <v>2.118027171686701</v>
+        <v>2.118902190952466</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.579535472539646</v>
+        <v>6.274001574934259</v>
       </c>
       <c r="K7">
-        <v>15.39933616079085</v>
+        <v>10.84267134856264</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.47393698076126</v>
+        <v>17.76579546882257</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.59163835676579</v>
+        <v>13.32054706192159</v>
       </c>
       <c r="C8">
-        <v>13.14026601878943</v>
+        <v>7.394737148657833</v>
       </c>
       <c r="D8">
-        <v>3.696458077842737</v>
+        <v>7.271041527991846</v>
       </c>
       <c r="E8">
-        <v>9.173633735439523</v>
+        <v>10.79773930269125</v>
       </c>
       <c r="F8">
-        <v>39.30157191409555</v>
+        <v>24.58741457607626</v>
       </c>
       <c r="G8">
-        <v>2.104198134544504</v>
+        <v>2.111992234746957</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.735536373809568</v>
+        <v>6.402036134396318</v>
       </c>
       <c r="K8">
-        <v>17.01589354780103</v>
+        <v>11.78349032040781</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.628657106683</v>
+        <v>17.69265346146931</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.91432916623079</v>
+        <v>15.39954480803807</v>
       </c>
       <c r="C9">
-        <v>15.35944912367838</v>
+        <v>8.283845912090014</v>
       </c>
       <c r="D9">
-        <v>4.035273710249904</v>
+        <v>8.185722781923022</v>
       </c>
       <c r="E9">
-        <v>10.103005181219</v>
+        <v>11.97313850975628</v>
       </c>
       <c r="F9">
-        <v>43.04616540507475</v>
+        <v>25.39323357004057</v>
       </c>
       <c r="G9">
-        <v>2.078081920155316</v>
+        <v>2.099203149517782</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.072923556858375</v>
+        <v>6.674318717299643</v>
       </c>
       <c r="K9">
-        <v>19.88091226502847</v>
+        <v>13.44112586504783</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.01199814018253</v>
+        <v>17.67800189230609</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.15605296844712</v>
+        <v>16.77460108159536</v>
       </c>
       <c r="C10">
-        <v>16.85556626582489</v>
+        <v>8.882411864780297</v>
       </c>
       <c r="D10">
-        <v>4.275300486382773</v>
+        <v>8.811276919503097</v>
       </c>
       <c r="E10">
-        <v>10.77818025790262</v>
+        <v>12.79867037119382</v>
       </c>
       <c r="F10">
-        <v>45.85349351706758</v>
+        <v>26.09129403126165</v>
       </c>
       <c r="G10">
-        <v>2.059298715260656</v>
+        <v>2.090227175790773</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.341037568801662</v>
+        <v>6.886546403247194</v>
       </c>
       <c r="K10">
-        <v>21.81095980064386</v>
+        <v>14.54479228891888</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>32.83592571851329</v>
+        <v>17.75576413588365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.13551761434555</v>
+        <v>17.36777248857523</v>
       </c>
       <c r="C11">
-        <v>17.50926172459007</v>
+        <v>9.142628310322545</v>
       </c>
       <c r="D11">
-        <v>4.3822391835403</v>
+        <v>9.085210842462915</v>
       </c>
       <c r="E11">
-        <v>11.08339709980372</v>
+        <v>13.16486868015472</v>
       </c>
       <c r="F11">
-        <v>47.14344801190312</v>
+        <v>26.43258050047812</v>
       </c>
       <c r="G11">
-        <v>2.050788427807134</v>
+        <v>2.086224623209558</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>7.467722398148788</v>
+        <v>6.985582372999355</v>
       </c>
       <c r="K11">
-        <v>22.65376544493552</v>
+        <v>15.02227392251797</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.68253663356127</v>
+        <v>17.81252055577321</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.5009012527613</v>
+        <v>17.58780001982388</v>
       </c>
       <c r="C12">
-        <v>17.75314175561239</v>
+        <v>9.239420612027157</v>
       </c>
       <c r="D12">
-        <v>4.422392304215923</v>
+        <v>9.187382819420655</v>
       </c>
       <c r="E12">
-        <v>11.19870549900357</v>
+        <v>13.30212891060907</v>
       </c>
       <c r="F12">
-        <v>47.63395627657233</v>
+        <v>26.56527402184075</v>
       </c>
       <c r="G12">
-        <v>2.047565631110311</v>
+        <v>2.08471964525637</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.516408202565472</v>
+        <v>7.023430670316866</v>
       </c>
       <c r="K12">
-        <v>22.96811167902026</v>
+        <v>15.19957347163944</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>34.00571970594373</v>
+        <v>17.83726406060661</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.42244997231359</v>
+        <v>17.54061650092348</v>
       </c>
       <c r="C13">
-        <v>17.70077704816306</v>
+        <v>9.218652398963908</v>
       </c>
       <c r="D13">
-        <v>4.41376005863405</v>
+        <v>9.165448069225658</v>
       </c>
       <c r="E13">
-        <v>11.17388344040035</v>
+        <v>13.2726311215794</v>
       </c>
       <c r="F13">
-        <v>47.52822215506765</v>
+        <v>26.53654177796041</v>
       </c>
       <c r="G13">
-        <v>2.048259812066623</v>
+        <v>2.085043308173296</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.505890482348672</v>
+        <v>7.015264185419579</v>
       </c>
       <c r="K13">
-        <v>22.90062098962905</v>
+        <v>15.16154462899736</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.93599790850877</v>
+        <v>17.83178771366333</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.16568682419535</v>
+        <v>17.38596600599244</v>
       </c>
       <c r="C14">
-        <v>17.52939796202731</v>
+        <v>9.150626496790281</v>
       </c>
       <c r="D14">
-        <v>4.385549547127448</v>
+        <v>9.093648018675818</v>
       </c>
       <c r="E14">
-        <v>11.09288888977417</v>
+        <v>13.17618977033657</v>
       </c>
       <c r="F14">
-        <v>47.18376029384528</v>
+        <v>26.44342779236506</v>
       </c>
       <c r="G14">
-        <v>2.050523320543504</v>
+        <v>2.086100598647294</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.471713287988638</v>
+        <v>6.988689319324358</v>
       </c>
       <c r="K14">
-        <v>22.67972166189334</v>
+        <v>15.03693070478676</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.70907201032733</v>
+        <v>17.81449005553335</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.00770217753755</v>
+        <v>17.29064166096535</v>
       </c>
       <c r="C15">
-        <v>17.42395322622141</v>
+        <v>9.108731106317755</v>
       </c>
       <c r="D15">
-        <v>4.368224784474365</v>
+        <v>9.049464383969134</v>
       </c>
       <c r="E15">
-        <v>11.04324275891927</v>
+        <v>13.11693116895066</v>
       </c>
       <c r="F15">
-        <v>46.97303914682759</v>
+        <v>26.38684400205592</v>
       </c>
       <c r="G15">
-        <v>2.051909605296143</v>
+        <v>2.086749585602201</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>7.450872806006489</v>
+        <v>6.972456084489361</v>
       </c>
       <c r="K15">
-        <v>22.5437965822382</v>
+        <v>14.96014443982858</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.5704166477048</v>
+        <v>17.80432334543834</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.09125451980527</v>
+        <v>16.735189899831</v>
       </c>
       <c r="C16">
-        <v>16.81232169187837</v>
+        <v>8.865162158020674</v>
       </c>
       <c r="D16">
-        <v>4.268264761709096</v>
+        <v>8.79315775704819</v>
       </c>
       <c r="E16">
-        <v>10.75819485585393</v>
+        <v>12.77454428392124</v>
       </c>
       <c r="F16">
-        <v>45.76946381966167</v>
+        <v>26.06947154675764</v>
       </c>
       <c r="G16">
-        <v>2.059855154474385</v>
+        <v>2.090490299835117</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>7.332856110171078</v>
+        <v>6.880123193728255</v>
       </c>
       <c r="K16">
-        <v>21.75519350257865</v>
+        <v>14.5130948607836</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>32.78094974717148</v>
+        <v>17.75250032824767</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.51890680934563</v>
+        <v>16.38619342967641</v>
       </c>
       <c r="C17">
-        <v>16.43035696206804</v>
+        <v>8.712638924061752</v>
       </c>
       <c r="D17">
-        <v>4.206350754943848</v>
+        <v>8.633172347815815</v>
       </c>
       <c r="E17">
-        <v>10.58283094392669</v>
+        <v>12.56205471663494</v>
       </c>
       <c r="F17">
-        <v>45.0345003971268</v>
+        <v>25.88088523302292</v>
       </c>
       <c r="G17">
-        <v>2.06473487283651</v>
+        <v>2.092805147061041</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>7.261686997651669</v>
+        <v>6.824108783983684</v>
       </c>
       <c r="K17">
-        <v>21.26257129117062</v>
+        <v>14.23256229117847</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.30105651158254</v>
+        <v>17.72631078469502</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.18589510094438</v>
+        <v>16.18241144368631</v>
       </c>
       <c r="C18">
-        <v>16.20811566218679</v>
+        <v>8.62377524514422</v>
       </c>
       <c r="D18">
-        <v>4.170528306381987</v>
+        <v>8.540153233841114</v>
       </c>
       <c r="E18">
-        <v>10.48178332520852</v>
+        <v>12.43896008164366</v>
       </c>
       <c r="F18">
-        <v>44.61296459212033</v>
+        <v>25.77464736360427</v>
       </c>
       <c r="G18">
-        <v>2.067545124646018</v>
+        <v>2.094144235552613</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.221193986862834</v>
+        <v>6.792126095180056</v>
       </c>
       <c r="K18">
-        <v>20.97589973653683</v>
+        <v>14.06889183648644</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.02661139343098</v>
+        <v>17.7132493162449</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.07248036785648</v>
+        <v>16.11288906701753</v>
       </c>
       <c r="C19">
-        <v>16.1324254918348</v>
+        <v>8.593492768166669</v>
       </c>
       <c r="D19">
-        <v>4.158363849796056</v>
+        <v>8.508487997782694</v>
       </c>
       <c r="E19">
-        <v>10.4475391406277</v>
+        <v>12.39713421792854</v>
       </c>
       <c r="F19">
-        <v>44.47044162957791</v>
+        <v>25.73905899759602</v>
       </c>
       <c r="G19">
-        <v>2.068497383982296</v>
+        <v>2.094598968088975</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.207558682753377</v>
+        <v>6.781338136042381</v>
       </c>
       <c r="K19">
-        <v>20.87825878010791</v>
+        <v>14.01307756159933</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.933956098982</v>
+        <v>17.70916539545987</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.5802268729111</v>
+        <v>16.42365979048715</v>
       </c>
       <c r="C20">
-        <v>16.47127976257416</v>
+        <v>8.728992982121079</v>
       </c>
       <c r="D20">
-        <v>4.212963615388945</v>
+        <v>8.650306800500013</v>
       </c>
       <c r="E20">
-        <v>10.60151770050312</v>
+        <v>12.58476583146856</v>
       </c>
       <c r="F20">
-        <v>45.11261383695831</v>
+        <v>25.900729238983</v>
       </c>
       <c r="G20">
-        <v>2.064215083921835</v>
+        <v>2.092557942225017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>7.269217147889921</v>
+        <v>6.8300473566048</v>
       </c>
       <c r="K20">
-        <v>21.31535448821698</v>
+        <v>14.26266497001714</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.35197784742179</v>
+        <v>17.72889021974614</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.24125176053256</v>
+        <v>17.43151479738282</v>
       </c>
       <c r="C21">
-        <v>17.57983371587435</v>
+        <v>9.17065478513663</v>
       </c>
       <c r="D21">
-        <v>4.393845062143653</v>
+        <v>9.114779995801126</v>
       </c>
       <c r="E21">
-        <v>11.11668612290959</v>
+        <v>13.20455568576863</v>
       </c>
       <c r="F21">
-        <v>47.28487998869027</v>
+        <v>26.47068352517724</v>
       </c>
       <c r="G21">
-        <v>2.049858520671009</v>
+        <v>2.085789763820763</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.481732286316002</v>
+        <v>6.996485720167908</v>
       </c>
       <c r="K21">
-        <v>22.74473341685999</v>
+        <v>15.07362794886214</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.77565371051605</v>
+        <v>17.81948116288044</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.29481800004686</v>
+        <v>18.06346024306919</v>
       </c>
       <c r="C22">
-        <v>18.28311811956886</v>
+        <v>9.44912910969038</v>
       </c>
       <c r="D22">
-        <v>4.510062729100179</v>
+        <v>9.409234687602959</v>
       </c>
       <c r="E22">
-        <v>11.45182241506264</v>
+        <v>13.60137961933423</v>
       </c>
       <c r="F22">
-        <v>48.71658599420048</v>
+        <v>26.86334102357544</v>
       </c>
       <c r="G22">
-        <v>2.040472021943447</v>
+        <v>2.081428284478246</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.624802324893778</v>
+        <v>7.107271899493941</v>
       </c>
       <c r="K22">
-        <v>23.65104210976226</v>
+        <v>15.58318118470457</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>34.72133451065373</v>
+        <v>17.89771840793717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.73533737092163</v>
+        <v>17.72860640080727</v>
       </c>
       <c r="C23">
-        <v>17.90962836475571</v>
+        <v>9.301434904608735</v>
       </c>
       <c r="D23">
-        <v>4.448222502409894</v>
+        <v>9.252919636088585</v>
       </c>
       <c r="E23">
-        <v>11.2730875954151</v>
+        <v>13.39035960285682</v>
       </c>
       <c r="F23">
-        <v>47.95126926037018</v>
+        <v>26.65191486040879</v>
       </c>
       <c r="G23">
-        <v>2.045483964872306</v>
+        <v>2.083750735666696</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.548046827235163</v>
+        <v>7.047963278349258</v>
       </c>
       <c r="K23">
-        <v>23.16978684968265</v>
+        <v>15.31308585999033</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>34.2151406529821</v>
+        <v>17.85416239781483</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.55251643151984</v>
+        <v>16.40673103124037</v>
       </c>
       <c r="C24">
-        <v>16.45278681740605</v>
+        <v>8.721602974760678</v>
       </c>
       <c r="D24">
-        <v>4.209974647556116</v>
+        <v>8.642563555558215</v>
       </c>
       <c r="E24">
-        <v>10.59307012991315</v>
+        <v>12.57450103267377</v>
       </c>
       <c r="F24">
-        <v>45.07729563399229</v>
+        <v>25.89175096786407</v>
       </c>
       <c r="G24">
-        <v>2.064450065051313</v>
+        <v>2.092669677760951</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>7.265811451703747</v>
+        <v>6.827361839362815</v>
       </c>
       <c r="K24">
-        <v>21.29150198974739</v>
+        <v>14.24906299031883</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.32895180024622</v>
+        <v>17.72771785577866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.05138894012606</v>
+        <v>14.86411222029674</v>
       </c>
       <c r="C25">
-        <v>14.7833871362148</v>
+        <v>8.052816508662286</v>
       </c>
       <c r="D25">
-        <v>3.945046493782434</v>
+        <v>7.946202746319146</v>
       </c>
       <c r="E25">
-        <v>9.852755665063357</v>
+        <v>11.66140145440993</v>
       </c>
       <c r="F25">
-        <v>42.023191917756</v>
+        <v>25.15688465292672</v>
       </c>
       <c r="G25">
-        <v>2.085059689449761</v>
+        <v>2.102585813916768</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.978186214280997</v>
+        <v>6.598464645489667</v>
       </c>
       <c r="K25">
-        <v>19.1374206082852</v>
+        <v>13.01278333080077</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.35461057368461</v>
+        <v>17.66714771220995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.62566823774726</v>
+        <v>13.79720072250769</v>
       </c>
       <c r="C2">
-        <v>7.523778912982117</v>
+        <v>8.066319451893138</v>
       </c>
       <c r="D2">
-        <v>7.402513861104905</v>
+        <v>8.825688408404956</v>
       </c>
       <c r="E2">
-        <v>10.96402548984528</v>
+        <v>12.42691527952687</v>
       </c>
       <c r="F2">
-        <v>24.68680345190024</v>
+        <v>20.69693620090933</v>
       </c>
       <c r="G2">
-        <v>2.110173047428472</v>
+        <v>20.67757755493192</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.609452961490752</v>
       </c>
       <c r="J2">
-        <v>6.438188939331027</v>
+        <v>8.812927047806927</v>
       </c>
       <c r="K2">
-        <v>12.02575376253557</v>
+        <v>12.88313877258893</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.126996970044168</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.42323681865688</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.68118112648221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.07005407611549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.72132264860648</v>
+        <v>12.95259949249324</v>
       </c>
       <c r="C3">
-        <v>7.143023234361916</v>
+        <v>7.631589279166297</v>
       </c>
       <c r="D3">
-        <v>7.016060254094556</v>
+        <v>8.381763221971175</v>
       </c>
       <c r="E3">
-        <v>10.47813584037576</v>
+        <v>11.84837354614475</v>
       </c>
       <c r="F3">
-        <v>24.41108444314473</v>
+        <v>20.4511791764893</v>
       </c>
       <c r="G3">
-        <v>2.115508011771101</v>
+        <v>20.59705733926139</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.818794730324487</v>
       </c>
       <c r="J3">
-        <v>6.334966555388946</v>
+        <v>8.884184800795699</v>
       </c>
       <c r="K3">
-        <v>11.30893171088385</v>
+        <v>13.08968147829155</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.933037649035194</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.74579827877576</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.72395402126905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.14467553492726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.13365584509354</v>
+        <v>12.40430736530665</v>
       </c>
       <c r="C4">
-        <v>6.898587248078485</v>
+        <v>7.351533299637862</v>
       </c>
       <c r="D4">
-        <v>6.770511720278673</v>
+        <v>8.097451765787142</v>
       </c>
       <c r="E4">
-        <v>10.17426005685252</v>
+        <v>11.47842057686436</v>
       </c>
       <c r="F4">
-        <v>24.2623411997923</v>
+        <v>20.30995702343662</v>
       </c>
       <c r="G4">
-        <v>2.118883398850025</v>
+        <v>20.5664920012486</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.952139274589055</v>
       </c>
       <c r="J4">
-        <v>6.274328235412971</v>
+        <v>8.93173321366511</v>
       </c>
       <c r="K4">
-        <v>10.8452750955132</v>
+        <v>13.22332277241485</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.810627911547354</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.30863613328555</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.765531923872</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.19924157266362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.88598870864411</v>
+        <v>12.17343875041177</v>
       </c>
       <c r="C5">
-        <v>6.796360090464142</v>
+        <v>7.234180215143845</v>
       </c>
       <c r="D5">
-        <v>6.668483827547083</v>
+        <v>7.978743469717271</v>
       </c>
       <c r="E5">
-        <v>10.04921320948237</v>
+        <v>11.32408495516291</v>
       </c>
       <c r="F5">
-        <v>24.2067943269093</v>
+        <v>20.25483571825152</v>
       </c>
       <c r="G5">
-        <v>2.120284588369511</v>
+        <v>20.55862079390678</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.007702473904073</v>
       </c>
       <c r="J5">
-        <v>6.250317934076303</v>
+        <v>8.952039597226936</v>
       </c>
       <c r="K5">
-        <v>10.65044701242642</v>
+        <v>13.27945645874961</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.75994787480828</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.12524777431818</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.7861659972287</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.22359886665533</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.84436805418477</v>
+        <v>12.13465542282526</v>
       </c>
       <c r="C6">
-        <v>6.779229298039438</v>
+        <v>7.214501334848499</v>
       </c>
       <c r="D6">
-        <v>6.651427229152837</v>
+        <v>7.958863355298853</v>
       </c>
       <c r="E6">
-        <v>10.02838153580097</v>
+        <v>11.29824572561137</v>
       </c>
       <c r="F6">
-        <v>24.19787365907964</v>
+        <v>20.24582924230364</v>
       </c>
       <c r="G6">
-        <v>2.120518824224361</v>
+        <v>20.55758578477071</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.017003078370365</v>
       </c>
       <c r="J6">
-        <v>6.24637363471931</v>
+        <v>8.955466936680709</v>
       </c>
       <c r="K6">
-        <v>10.61774178062328</v>
+        <v>13.28887735471518</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.751485500269018</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.09448286614256</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.78981053412324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.22776923389663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.13034892670182</v>
+        <v>12.4012238391722</v>
       </c>
       <c r="C7">
-        <v>6.897219085032572</v>
+        <v>7.34996359580351</v>
       </c>
       <c r="D7">
-        <v>6.769143526863718</v>
+        <v>8.095862210001831</v>
       </c>
       <c r="E7">
-        <v>10.17257829915962</v>
+        <v>11.47635345248899</v>
       </c>
       <c r="F7">
-        <v>24.26157170076197</v>
+        <v>20.30920381874114</v>
       </c>
       <c r="G7">
-        <v>2.118902190952466</v>
+        <v>20.56636750501902</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.952883642623475</v>
       </c>
       <c r="J7">
-        <v>6.274001574934259</v>
+        <v>8.932003338420893</v>
       </c>
       <c r="K7">
-        <v>10.84267134856264</v>
+        <v>13.22407308641983</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.809947598734493</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.30618397670558</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.76579546882257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.19956157731525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.32054706192159</v>
+        <v>13.51216318165557</v>
       </c>
       <c r="C8">
-        <v>7.394737148657833</v>
+        <v>7.919188932791815</v>
       </c>
       <c r="D8">
-        <v>7.271041527991846</v>
+        <v>8.675115618519945</v>
       </c>
       <c r="E8">
-        <v>10.79773930269125</v>
+        <v>12.230559691562</v>
       </c>
       <c r="F8">
-        <v>24.58741457607626</v>
+        <v>20.61019050046145</v>
       </c>
       <c r="G8">
-        <v>2.111992234746957</v>
+        <v>20.64580227379061</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.680645461831044</v>
       </c>
       <c r="J8">
-        <v>6.402036134396318</v>
+        <v>8.836693757550535</v>
       </c>
       <c r="K8">
-        <v>11.78349032040781</v>
+        <v>12.952912020173</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.060829811156951</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>12.19410766191844</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.69265346146931</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.09391994924464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.39954480803807</v>
+        <v>15.45422523440061</v>
       </c>
       <c r="C9">
-        <v>8.283845912090014</v>
+        <v>8.92877554044591</v>
       </c>
       <c r="D9">
-        <v>8.185722781923022</v>
+        <v>9.714253832932847</v>
       </c>
       <c r="E9">
-        <v>11.97313850975628</v>
+        <v>13.5881974583337</v>
       </c>
       <c r="F9">
-        <v>25.39323357004057</v>
+        <v>21.27711141555151</v>
       </c>
       <c r="G9">
-        <v>2.099203149517782</v>
+        <v>20.95806329519887</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.927825027337805</v>
       </c>
       <c r="J9">
-        <v>6.674318717299643</v>
+        <v>8.681076066232498</v>
       </c>
       <c r="K9">
-        <v>13.44112586504783</v>
+        <v>12.47740878789991</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.525010496887561</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.76396144330121</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.67800189230609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.95979037512876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.77460108159536</v>
+        <v>16.73774761780592</v>
       </c>
       <c r="C10">
-        <v>8.882411864780297</v>
+        <v>9.584451084486391</v>
       </c>
       <c r="D10">
-        <v>8.811276919503097</v>
+        <v>10.31755088920123</v>
       </c>
       <c r="E10">
-        <v>12.79867037119382</v>
+        <v>14.27540464422953</v>
       </c>
       <c r="F10">
-        <v>26.09129403126165</v>
+        <v>21.66076977546232</v>
       </c>
       <c r="G10">
-        <v>2.090227175790773</v>
+        <v>21.13121194433355</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.250570125303457</v>
       </c>
       <c r="J10">
-        <v>6.886546403247194</v>
+        <v>8.562896533599694</v>
       </c>
       <c r="K10">
-        <v>14.54479228891888</v>
+        <v>12.12570349403529</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.739504740451582</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.80416142247687</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.75576413588365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.84650363958724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.36777248857523</v>
+        <v>17.3015044117734</v>
       </c>
       <c r="C11">
-        <v>9.142628310322545</v>
+        <v>9.710032088911369</v>
       </c>
       <c r="D11">
-        <v>9.085210842462915</v>
+        <v>9.744007460147174</v>
       </c>
       <c r="E11">
-        <v>13.16486868015472</v>
+        <v>12.61356929913379</v>
       </c>
       <c r="F11">
-        <v>26.43258050047812</v>
+        <v>20.52733315550705</v>
       </c>
       <c r="G11">
-        <v>2.086224623209558</v>
+        <v>19.84741308090046</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.052385852834466</v>
       </c>
       <c r="J11">
-        <v>6.985582372999355</v>
+        <v>8.301071168623126</v>
       </c>
       <c r="K11">
-        <v>15.02227392251797</v>
+        <v>11.63512288511558</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.957557892655545</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.20570803067697</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.81252055577321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.24977002547223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.58780001982388</v>
+        <v>17.51773374292449</v>
       </c>
       <c r="C12">
-        <v>9.239420612027157</v>
+        <v>9.68245181533816</v>
       </c>
       <c r="D12">
-        <v>9.187382819420655</v>
+        <v>9.128582730659703</v>
       </c>
       <c r="E12">
-        <v>13.30212891060907</v>
+        <v>11.10230124826765</v>
       </c>
       <c r="F12">
-        <v>26.56527402184075</v>
+        <v>19.47956130490645</v>
       </c>
       <c r="G12">
-        <v>2.08471964525637</v>
+        <v>18.70918900391247</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.261498883940949</v>
       </c>
       <c r="J12">
-        <v>7.023430670316866</v>
+        <v>8.104355087373172</v>
       </c>
       <c r="K12">
-        <v>15.19957347163944</v>
+        <v>11.30360593718862</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.338385627715754</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.33379623255773</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.83726406060661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.76689976142542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.54061650092348</v>
+        <v>17.48668429792914</v>
       </c>
       <c r="C13">
-        <v>9.218652398963908</v>
+        <v>9.534626816977704</v>
       </c>
       <c r="D13">
-        <v>9.165448069225658</v>
+        <v>8.427658063618674</v>
       </c>
       <c r="E13">
-        <v>13.2726311215794</v>
+        <v>9.605847695113368</v>
       </c>
       <c r="F13">
-        <v>26.53654177796041</v>
+        <v>18.42813470384881</v>
       </c>
       <c r="G13">
-        <v>2.085043308173296</v>
+        <v>17.60859325098224</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.557277177175465</v>
       </c>
       <c r="J13">
-        <v>7.015264185419579</v>
+        <v>7.94676378306214</v>
       </c>
       <c r="K13">
-        <v>15.16154462899736</v>
+        <v>11.07809491432108</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.828055675373564</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.26293701782945</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.83178771366333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.34432515436342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.38596600599244</v>
+        <v>17.35283241742386</v>
       </c>
       <c r="C14">
-        <v>9.150626496790281</v>
+        <v>9.375082590769267</v>
       </c>
       <c r="D14">
-        <v>9.093648018675818</v>
+        <v>7.890929631267669</v>
       </c>
       <c r="E14">
-        <v>13.17618977033657</v>
+        <v>8.586816668903845</v>
       </c>
       <c r="F14">
-        <v>26.44342779236506</v>
+        <v>17.69505631576013</v>
       </c>
       <c r="G14">
-        <v>2.086100598647294</v>
+        <v>16.86276877052421</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.49354487387883</v>
       </c>
       <c r="J14">
-        <v>6.988689319324358</v>
+        <v>7.855954888505484</v>
       </c>
       <c r="K14">
-        <v>15.03693070478676</v>
+        <v>10.97324817297764</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.553300405183646</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.12258511711908</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.81449005553335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.08077174793423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.29064166096535</v>
+        <v>17.26662783856143</v>
       </c>
       <c r="C15">
-        <v>9.108731106317755</v>
+        <v>9.309804993234081</v>
       </c>
       <c r="D15">
-        <v>9.049464383969134</v>
+        <v>7.74101704733858</v>
       </c>
       <c r="E15">
-        <v>13.11693116895066</v>
+        <v>8.338208773948971</v>
       </c>
       <c r="F15">
-        <v>26.38684400205592</v>
+        <v>17.51832194898475</v>
       </c>
       <c r="G15">
-        <v>2.086749585602201</v>
+        <v>16.6936078444451</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.7068614483725</v>
       </c>
       <c r="J15">
-        <v>6.972456084489361</v>
+        <v>7.842558018980482</v>
       </c>
       <c r="K15">
-        <v>14.96014443982858</v>
+        <v>10.9696512333373</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.498296067312436</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.0451168419022</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.80432334543834</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12.0307876107813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.735189899831</v>
+        <v>16.74780882255557</v>
       </c>
       <c r="C16">
-        <v>8.865162158020674</v>
+        <v>9.060099746529335</v>
       </c>
       <c r="D16">
-        <v>8.79315775704819</v>
+        <v>7.586513093413696</v>
       </c>
       <c r="E16">
-        <v>12.77454428392124</v>
+        <v>8.273022782104924</v>
       </c>
       <c r="F16">
-        <v>26.06947154675764</v>
+        <v>17.55335252542631</v>
       </c>
       <c r="G16">
-        <v>2.090490299835117</v>
+        <v>16.83123154878388</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.439241293459832</v>
       </c>
       <c r="J16">
-        <v>6.880123193728255</v>
+        <v>7.926273783095766</v>
       </c>
       <c r="K16">
-        <v>14.5130948607836</v>
+        <v>11.17002810429393</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.495911116010204</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.62841666449174</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.75250032824767</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.16774164763952</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.38619342967641</v>
+        <v>16.41542263953941</v>
       </c>
       <c r="C17">
-        <v>8.712638924061752</v>
+        <v>8.953527121837096</v>
       </c>
       <c r="D17">
-        <v>8.633172347815815</v>
+        <v>7.763771489313267</v>
       </c>
       <c r="E17">
-        <v>12.56205471663494</v>
+        <v>8.762808268799297</v>
       </c>
       <c r="F17">
-        <v>25.88088523302292</v>
+        <v>17.97112346676104</v>
       </c>
       <c r="G17">
-        <v>2.092805147061041</v>
+        <v>17.33294867262072</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.68784401903102</v>
       </c>
       <c r="J17">
-        <v>6.824108783983684</v>
+        <v>8.038157938136777</v>
       </c>
       <c r="K17">
-        <v>14.23256229117847</v>
+        <v>11.3770230431632</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.624870037474119</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.38022128309767</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.72631078469502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.41095794774663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.18241144368631</v>
+        <v>16.21369997307779</v>
       </c>
       <c r="C18">
-        <v>8.62377524514422</v>
+        <v>8.962172417003417</v>
       </c>
       <c r="D18">
-        <v>8.540153233841114</v>
+        <v>8.249929689304626</v>
       </c>
       <c r="E18">
-        <v>12.43896008164366</v>
+        <v>9.859665989309665</v>
       </c>
       <c r="F18">
-        <v>25.77464736360427</v>
+        <v>18.76926606191913</v>
       </c>
       <c r="G18">
-        <v>2.094144235552613</v>
+        <v>18.204180880157</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.469766295256171</v>
       </c>
       <c r="J18">
-        <v>6.792126095180056</v>
+        <v>8.187912778349054</v>
       </c>
       <c r="K18">
-        <v>14.06889183648644</v>
+        <v>11.62029593551819</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.963846435722385</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.25516437505398</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.7132493162449</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.77539318368905</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.11288906701753</v>
+        <v>16.13592780759967</v>
       </c>
       <c r="C19">
-        <v>8.593492768166669</v>
+        <v>9.063825730256021</v>
       </c>
       <c r="D19">
-        <v>8.508487997782694</v>
+        <v>8.943735254641108</v>
       </c>
       <c r="E19">
-        <v>12.39713421792854</v>
+        <v>11.42549455105945</v>
       </c>
       <c r="F19">
-        <v>25.73905899759602</v>
+        <v>19.82552767041748</v>
       </c>
       <c r="G19">
-        <v>2.094598968088975</v>
+        <v>19.31999340526803</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.111770693117334</v>
       </c>
       <c r="J19">
-        <v>6.781338136042381</v>
+        <v>8.360441620254514</v>
       </c>
       <c r="K19">
-        <v>14.01307756159933</v>
+        <v>11.88786774832917</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.54497462502002</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.24124329067207</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.70916539545987</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.21909188513003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.42365979048715</v>
+        <v>16.41052560428454</v>
       </c>
       <c r="C20">
-        <v>8.728992982121079</v>
+        <v>9.415930483993716</v>
       </c>
       <c r="D20">
-        <v>8.650306800500013</v>
+        <v>10.15832294697563</v>
       </c>
       <c r="E20">
-        <v>12.58476583146856</v>
+        <v>14.08823089850946</v>
       </c>
       <c r="F20">
-        <v>25.900729238983</v>
+        <v>21.54996406236783</v>
       </c>
       <c r="G20">
-        <v>2.092557942225017</v>
+        <v>21.07126553791708</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.165222948654775</v>
       </c>
       <c r="J20">
-        <v>6.8300473566048</v>
+        <v>8.59142726991711</v>
       </c>
       <c r="K20">
-        <v>14.26266497001714</v>
+        <v>12.21375298229058</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.679181503368005</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.53806152271924</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.72889021974614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.8699699582384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.43151479738282</v>
+        <v>17.34800560510859</v>
       </c>
       <c r="C21">
-        <v>9.17065478513663</v>
+        <v>9.9261898853561</v>
       </c>
       <c r="D21">
-        <v>9.114779995801126</v>
+        <v>10.75229641735547</v>
       </c>
       <c r="E21">
-        <v>13.20455568576863</v>
+        <v>14.95013090082433</v>
       </c>
       <c r="F21">
-        <v>26.47068352517724</v>
+        <v>22.09535897457782</v>
       </c>
       <c r="G21">
-        <v>2.085789763820763</v>
+        <v>21.4869609629824</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.426366598079716</v>
       </c>
       <c r="J21">
-        <v>6.996485720167908</v>
+        <v>8.545945932411513</v>
       </c>
       <c r="K21">
-        <v>15.07362794886214</v>
+        <v>12.01857672555189</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.005036749492829</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.3107604294164</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.81948116288044</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.89981566902658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.06346024306919</v>
+        <v>17.9352095931475</v>
       </c>
       <c r="C22">
-        <v>9.44912910969038</v>
+        <v>10.23742087091564</v>
       </c>
       <c r="D22">
-        <v>9.409234687602959</v>
+        <v>11.07808876426015</v>
       </c>
       <c r="E22">
-        <v>13.60137961933423</v>
+        <v>15.37869406154515</v>
       </c>
       <c r="F22">
-        <v>26.86334102357544</v>
+        <v>22.381803208601</v>
       </c>
       <c r="G22">
-        <v>2.081428284478246</v>
+        <v>21.69767930234037</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.586445281403209</v>
       </c>
       <c r="J22">
-        <v>7.107271899493941</v>
+        <v>8.508042714376678</v>
       </c>
       <c r="K22">
-        <v>15.58318118470457</v>
+        <v>11.87880390465819</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.158742160406234</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.79284793069777</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.89771840793717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.89713216048143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.72860640080727</v>
+        <v>17.62419002453075</v>
       </c>
       <c r="C23">
-        <v>9.301434904608735</v>
+        <v>10.07247233530011</v>
       </c>
       <c r="D23">
-        <v>9.252919636088585</v>
+        <v>10.90532150976111</v>
       </c>
       <c r="E23">
-        <v>13.39035960285682</v>
+        <v>15.1513630362916</v>
       </c>
       <c r="F23">
-        <v>26.65191486040879</v>
+        <v>22.2281842316854</v>
       </c>
       <c r="G23">
-        <v>2.083750735666696</v>
+        <v>21.58327563397896</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.501326712874083</v>
       </c>
       <c r="J23">
-        <v>7.047963278349258</v>
+        <v>8.527861791068874</v>
       </c>
       <c r="K23">
-        <v>15.31308585999033</v>
+        <v>11.95263741028777</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.077059870164288</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.53737548487663</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.85416239781483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.89756426549298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.40673103124037</v>
+        <v>16.39382511779545</v>
       </c>
       <c r="C24">
-        <v>8.721602974760678</v>
+        <v>9.422321152959967</v>
       </c>
       <c r="D24">
-        <v>8.642563555558215</v>
+        <v>10.2266729660379</v>
       </c>
       <c r="E24">
-        <v>12.57450103267377</v>
+        <v>14.25981090989042</v>
       </c>
       <c r="F24">
-        <v>25.89175096786407</v>
+        <v>21.66272827253262</v>
       </c>
       <c r="G24">
-        <v>2.092669677760951</v>
+        <v>21.19203787041922</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.171846313945003</v>
       </c>
       <c r="J24">
-        <v>6.827361839362815</v>
+        <v>8.611724422895319</v>
       </c>
       <c r="K24">
-        <v>14.24906299031883</v>
+        <v>12.24858758538731</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.760057172567349</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.5297530718927</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.72771785577866</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.92061680979032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.86411222029674</v>
+        <v>14.95422768995333</v>
       </c>
       <c r="C25">
-        <v>8.052816508662286</v>
+        <v>8.667369058540391</v>
       </c>
       <c r="D25">
-        <v>7.946202746319146</v>
+        <v>9.443942935963246</v>
       </c>
       <c r="E25">
-        <v>11.66140145440993</v>
+        <v>13.23446837298806</v>
       </c>
       <c r="F25">
-        <v>25.15688465292672</v>
+        <v>21.08850628960282</v>
       </c>
       <c r="G25">
-        <v>2.102585813916768</v>
+        <v>20.85592377078365</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.800578277134972</v>
       </c>
       <c r="J25">
-        <v>6.598464645489667</v>
+        <v>8.719655481874886</v>
       </c>
       <c r="K25">
-        <v>13.01278333080077</v>
+        <v>12.59970880308733</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.402605044955249</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.35797537953195</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.66714771220995</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>13.98773816985434</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_20/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.79720072250769</v>
+        <v>13.78569571167553</v>
       </c>
       <c r="C2">
-        <v>8.066319451893138</v>
+        <v>8.252203147773889</v>
       </c>
       <c r="D2">
-        <v>8.825688408404956</v>
+        <v>8.90652875965651</v>
       </c>
       <c r="E2">
-        <v>12.42691527952687</v>
+        <v>12.47759767718264</v>
       </c>
       <c r="F2">
-        <v>20.69693620090933</v>
+        <v>20.40131801029613</v>
       </c>
       <c r="G2">
-        <v>20.67757755493192</v>
+        <v>19.55073686580144</v>
       </c>
       <c r="H2">
-        <v>1.609452961490752</v>
+        <v>1.585342488245865</v>
       </c>
       <c r="J2">
-        <v>8.812927047806927</v>
+        <v>9.10289752218698</v>
       </c>
       <c r="K2">
-        <v>12.88313877258893</v>
+        <v>12.54510316300426</v>
       </c>
       <c r="L2">
-        <v>7.126996970044168</v>
+        <v>11.01973520013923</v>
       </c>
       <c r="M2">
-        <v>12.42323681865688</v>
+        <v>7.515179165476092</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.131706810983145</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.48255796134283</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>14.07005407611549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.83352702532361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.95259949249324</v>
+        <v>12.97111466019169</v>
       </c>
       <c r="C3">
-        <v>7.631589279166297</v>
+        <v>7.713043384102187</v>
       </c>
       <c r="D3">
-        <v>8.381763221971175</v>
+        <v>8.455347730886333</v>
       </c>
       <c r="E3">
-        <v>11.84837354614475</v>
+        <v>11.90223353953283</v>
       </c>
       <c r="F3">
-        <v>20.4511791764893</v>
+        <v>20.18686382194797</v>
       </c>
       <c r="G3">
-        <v>20.59705733926139</v>
+        <v>19.55100699601958</v>
       </c>
       <c r="H3">
-        <v>1.818794730324487</v>
+        <v>1.785290296380326</v>
       </c>
       <c r="J3">
-        <v>8.884184800795699</v>
+        <v>9.144115086866506</v>
       </c>
       <c r="K3">
-        <v>13.08968147829155</v>
+        <v>12.75210601708494</v>
       </c>
       <c r="L3">
-        <v>6.933037649035194</v>
+        <v>11.21710120069799</v>
       </c>
       <c r="M3">
-        <v>11.74579827877576</v>
+        <v>7.660580256823265</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.943449707137583</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.7930852826992</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>14.14467553492726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.92184419998496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.40430736530665</v>
+        <v>12.44270311158556</v>
       </c>
       <c r="C4">
-        <v>7.351533299637862</v>
+        <v>7.36428329996283</v>
       </c>
       <c r="D4">
-        <v>8.097451765787142</v>
+        <v>8.166699339561955</v>
       </c>
       <c r="E4">
-        <v>11.47842057686436</v>
+        <v>11.53462953003262</v>
       </c>
       <c r="F4">
-        <v>20.30995702343662</v>
+        <v>20.06345616881893</v>
       </c>
       <c r="G4">
-        <v>20.5664920012486</v>
+        <v>19.57072780056322</v>
       </c>
       <c r="H4">
-        <v>1.952139274589055</v>
+        <v>1.912705143120138</v>
       </c>
       <c r="J4">
-        <v>8.93173321366511</v>
+        <v>9.171523679374085</v>
       </c>
       <c r="K4">
-        <v>13.22332277241485</v>
+        <v>12.88456653134943</v>
       </c>
       <c r="L4">
-        <v>6.810627911547354</v>
+        <v>11.34467708080421</v>
       </c>
       <c r="M4">
-        <v>11.30863613328555</v>
+        <v>7.769923035016046</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.824709264482038</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.34820249705809</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>14.19924157266362</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>13.98341458638878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.17343875041177</v>
+        <v>12.22031630240956</v>
       </c>
       <c r="C5">
-        <v>7.234180215143845</v>
+        <v>7.217779487815994</v>
       </c>
       <c r="D5">
-        <v>7.978743469717271</v>
+        <v>8.046266598880493</v>
       </c>
       <c r="E5">
-        <v>11.32408495516291</v>
+        <v>11.38136000459082</v>
       </c>
       <c r="F5">
-        <v>20.25483571825152</v>
+        <v>20.01522909957924</v>
       </c>
       <c r="G5">
-        <v>20.55862079390678</v>
+        <v>19.58346018539263</v>
       </c>
       <c r="H5">
-        <v>2.007702473904073</v>
+        <v>1.965809787506784</v>
       </c>
       <c r="J5">
-        <v>8.952039597226936</v>
+        <v>9.183211218375696</v>
       </c>
       <c r="K5">
-        <v>13.27945645874961</v>
+        <v>12.93987139960037</v>
       </c>
       <c r="L5">
-        <v>6.75994787480828</v>
+        <v>11.39828348334809</v>
       </c>
       <c r="M5">
-        <v>11.12524777431818</v>
+        <v>7.819322260557864</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.775566292604617</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.16159536931277</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14.22359886665533</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.01028461165553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13465542282526</v>
+        <v>12.18296485586612</v>
       </c>
       <c r="C6">
-        <v>7.214501334848499</v>
+        <v>7.193190580960534</v>
       </c>
       <c r="D6">
-        <v>7.958863355298853</v>
+        <v>8.026103156513745</v>
       </c>
       <c r="E6">
-        <v>11.29824572561137</v>
+        <v>11.35570464633384</v>
       </c>
       <c r="F6">
-        <v>20.24582924230364</v>
+        <v>20.00734502540191</v>
       </c>
       <c r="G6">
-        <v>20.55758578477071</v>
+        <v>19.58585147362961</v>
       </c>
       <c r="H6">
-        <v>2.017003078370365</v>
+        <v>1.974699562751762</v>
       </c>
       <c r="J6">
-        <v>8.955466936680709</v>
+        <v>9.185182947410556</v>
       </c>
       <c r="K6">
-        <v>13.28887735471518</v>
+        <v>12.94913423942131</v>
       </c>
       <c r="L6">
-        <v>6.751485500269018</v>
+        <v>11.40728283909973</v>
       </c>
       <c r="M6">
-        <v>11.09448286614256</v>
+        <v>7.827811355510092</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.767361652700313</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.13029196429398</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14.22776923389663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.01485193257826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.4012238391722</v>
+        <v>12.44035794174415</v>
       </c>
       <c r="C7">
-        <v>7.34996359580351</v>
+        <v>7.357612433135796</v>
       </c>
       <c r="D7">
-        <v>8.095862210001831</v>
+        <v>8.168766693691202</v>
       </c>
       <c r="E7">
-        <v>11.47635345248899</v>
+        <v>11.53386865840373</v>
       </c>
       <c r="F7">
-        <v>20.30920381874114</v>
+        <v>20.05009019791547</v>
       </c>
       <c r="G7">
-        <v>20.56636750501902</v>
+        <v>19.63982144048555</v>
       </c>
       <c r="H7">
-        <v>1.952883642623475</v>
+        <v>1.913901891811963</v>
       </c>
       <c r="J7">
-        <v>8.932003338420893</v>
+        <v>9.142243319778295</v>
       </c>
       <c r="K7">
-        <v>13.22407308641983</v>
+        <v>12.88046468792518</v>
       </c>
       <c r="L7">
-        <v>6.809947598734493</v>
+        <v>11.34051028355579</v>
       </c>
       <c r="M7">
-        <v>11.30618397670558</v>
+        <v>7.768288246083086</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.823485852068321</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.34453913467116</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14.19956157731525</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>13.97544275385672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.51216318165557</v>
+        <v>13.51268990067904</v>
       </c>
       <c r="C8">
-        <v>7.919188932791815</v>
+        <v>8.055436830406974</v>
       </c>
       <c r="D8">
-        <v>8.675115618519945</v>
+        <v>8.764963820760492</v>
       </c>
       <c r="E8">
-        <v>12.230559691562</v>
+        <v>12.28639273740279</v>
       </c>
       <c r="F8">
-        <v>20.61019050046145</v>
+        <v>20.28424012254271</v>
       </c>
       <c r="G8">
-        <v>20.64580227379061</v>
+        <v>19.77648569226788</v>
       </c>
       <c r="H8">
-        <v>1.680645461831044</v>
+        <v>1.654816863147941</v>
       </c>
       <c r="J8">
-        <v>8.836693757550535</v>
+        <v>9.020921396647669</v>
       </c>
       <c r="K8">
-        <v>12.952912020173</v>
+        <v>12.59949906876031</v>
       </c>
       <c r="L8">
-        <v>7.060829811156951</v>
+        <v>11.07215470518346</v>
       </c>
       <c r="M8">
-        <v>12.19410766191844</v>
+        <v>7.551259761584217</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.065713569238094</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.2457705225584</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14.09391994924464</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.83490837343956</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.45422523440061</v>
+        <v>15.38758590204838</v>
       </c>
       <c r="C9">
-        <v>8.92877554044591</v>
+        <v>9.298378771762787</v>
       </c>
       <c r="D9">
-        <v>9.714253832932847</v>
+        <v>9.8241659095124</v>
       </c>
       <c r="E9">
-        <v>13.5881974583337</v>
+        <v>13.63872433836328</v>
       </c>
       <c r="F9">
-        <v>21.27711141555151</v>
+        <v>20.85629873162252</v>
       </c>
       <c r="G9">
-        <v>20.95806329519887</v>
+        <v>19.95381701392384</v>
       </c>
       <c r="H9">
-        <v>1.927825027337805</v>
+        <v>1.930759133980798</v>
       </c>
       <c r="J9">
-        <v>8.681076066232498</v>
+        <v>8.903967763539953</v>
       </c>
       <c r="K9">
-        <v>12.47740878789991</v>
+        <v>12.10961144351068</v>
       </c>
       <c r="L9">
-        <v>7.525010496887561</v>
+        <v>10.61413052733284</v>
       </c>
       <c r="M9">
-        <v>13.76396144330121</v>
+        <v>7.30162407330564</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.516330685446396</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.84297575237092</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.95979037512876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.65096658497825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.73774761780592</v>
+        <v>16.63277733555332</v>
       </c>
       <c r="C10">
-        <v>9.584451084486391</v>
+        <v>10.07305771710374</v>
       </c>
       <c r="D10">
-        <v>10.31755088920123</v>
+        <v>10.4574207490801</v>
       </c>
       <c r="E10">
-        <v>14.27540464422953</v>
+        <v>14.32894968169099</v>
       </c>
       <c r="F10">
-        <v>21.66076977546232</v>
+        <v>21.10475017893825</v>
       </c>
       <c r="G10">
-        <v>21.13121194433355</v>
+        <v>20.4444435581341</v>
       </c>
       <c r="H10">
-        <v>2.250570125303457</v>
+        <v>2.236062497746238</v>
       </c>
       <c r="J10">
-        <v>8.562896533599694</v>
+        <v>8.649884371893664</v>
       </c>
       <c r="K10">
-        <v>12.12570349403529</v>
+        <v>11.71821853407284</v>
       </c>
       <c r="L10">
-        <v>7.739504740451582</v>
+        <v>10.26860248702452</v>
       </c>
       <c r="M10">
-        <v>14.80416142247687</v>
+        <v>7.175842725458405</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.719462991967156</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.8942778972368</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.84650363958724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.45205084878693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.3015044117734</v>
+        <v>17.20366690742968</v>
       </c>
       <c r="C11">
-        <v>9.710032088911369</v>
+        <v>10.13093309963628</v>
       </c>
       <c r="D11">
-        <v>9.744007460147174</v>
+        <v>9.91111809630536</v>
       </c>
       <c r="E11">
-        <v>12.61356929913379</v>
+        <v>12.67124311085383</v>
       </c>
       <c r="F11">
-        <v>20.52733315550705</v>
+        <v>19.86921400752646</v>
       </c>
       <c r="G11">
-        <v>19.84741308090046</v>
+        <v>20.06591881760196</v>
       </c>
       <c r="H11">
-        <v>3.052385852834466</v>
+        <v>3.035663975536024</v>
       </c>
       <c r="J11">
-        <v>8.301071168623126</v>
+        <v>8.159532037793877</v>
       </c>
       <c r="K11">
-        <v>11.63512288511558</v>
+        <v>11.23468246978134</v>
       </c>
       <c r="L11">
-        <v>6.957557892655545</v>
+        <v>9.930827491766237</v>
       </c>
       <c r="M11">
-        <v>15.20570803067697</v>
+        <v>6.830872748212662</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.931931807832684</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.27816034990414</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>13.24977002547223</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.79624066756731</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51773374292449</v>
+        <v>17.43191929034931</v>
       </c>
       <c r="C12">
-        <v>9.68245181533816</v>
+        <v>10.03448884071464</v>
       </c>
       <c r="D12">
-        <v>9.128582730659703</v>
+        <v>9.301219877133335</v>
       </c>
       <c r="E12">
-        <v>11.10230124826765</v>
+        <v>11.15661447455104</v>
       </c>
       <c r="F12">
-        <v>19.47956130490645</v>
+        <v>18.8119744252668</v>
       </c>
       <c r="G12">
-        <v>18.70918900391247</v>
+        <v>19.360679626726</v>
       </c>
       <c r="H12">
-        <v>4.261498883940949</v>
+        <v>4.248564793376508</v>
       </c>
       <c r="J12">
-        <v>8.104355087373172</v>
+        <v>7.931481736209804</v>
       </c>
       <c r="K12">
-        <v>11.30360593718862</v>
+        <v>10.94043121759014</v>
       </c>
       <c r="L12">
-        <v>6.338385627715754</v>
+        <v>9.74917332634384</v>
       </c>
       <c r="M12">
-        <v>15.33379623255773</v>
+        <v>6.575102553259649</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.312560109119943</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.39190287502578</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.76689976142542</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.31741990362411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48668429792914</v>
+        <v>17.41609049787566</v>
       </c>
       <c r="C13">
-        <v>9.534626816977704</v>
+        <v>9.82016238478062</v>
       </c>
       <c r="D13">
-        <v>8.427658063618674</v>
+        <v>8.582331805654567</v>
       </c>
       <c r="E13">
-        <v>9.605847695113368</v>
+        <v>9.648759392835172</v>
       </c>
       <c r="F13">
-        <v>18.42813470384881</v>
+        <v>17.84657795044127</v>
       </c>
       <c r="G13">
-        <v>17.60859325098224</v>
+        <v>18.17624874666492</v>
       </c>
       <c r="H13">
-        <v>5.557277177175465</v>
+        <v>5.548698790191264</v>
       </c>
       <c r="J13">
-        <v>7.94676378306214</v>
+        <v>7.873630183307478</v>
       </c>
       <c r="K13">
-        <v>11.07809491432108</v>
+        <v>10.77877541023205</v>
       </c>
       <c r="L13">
-        <v>5.828055675373564</v>
+        <v>9.66068619696639</v>
       </c>
       <c r="M13">
-        <v>15.26293701782945</v>
+        <v>6.390959362590539</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.806970560543533</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.31013972784497</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12.34432515436342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.96155258815855</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.35283241742386</v>
+        <v>17.29453784903083</v>
       </c>
       <c r="C14">
-        <v>9.375082590769267</v>
+        <v>9.61379279885298</v>
       </c>
       <c r="D14">
-        <v>7.890929631267669</v>
+        <v>8.022812258941258</v>
       </c>
       <c r="E14">
-        <v>8.586816668903845</v>
+        <v>8.61887066021856</v>
       </c>
       <c r="F14">
-        <v>17.69505631576013</v>
+        <v>17.21202696371897</v>
       </c>
       <c r="G14">
-        <v>16.86276877052421</v>
+        <v>17.15493837145481</v>
       </c>
       <c r="H14">
-        <v>6.49354487387883</v>
+        <v>6.487695157065946</v>
       </c>
       <c r="J14">
-        <v>7.855954888505484</v>
+        <v>7.891160511490834</v>
       </c>
       <c r="K14">
-        <v>10.97324817297764</v>
+        <v>10.72434101750638</v>
       </c>
       <c r="L14">
-        <v>5.553300405183646</v>
+        <v>9.634467893464988</v>
       </c>
       <c r="M14">
-        <v>15.12258511711908</v>
+        <v>6.300661356846411</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.537465244261075</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.16346324547493</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12.08077174793423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.76750451170372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.26662783856143</v>
+        <v>17.21216668940123</v>
       </c>
       <c r="C15">
-        <v>9.309804993234081</v>
+        <v>9.536734613562885</v>
       </c>
       <c r="D15">
-        <v>7.74101704733858</v>
+        <v>7.863109384622417</v>
       </c>
       <c r="E15">
-        <v>8.338208773948971</v>
+        <v>8.367022166517431</v>
       </c>
       <c r="F15">
-        <v>17.51832194898475</v>
+        <v>17.07489227628031</v>
       </c>
       <c r="G15">
-        <v>16.6936078444451</v>
+        <v>16.83172246421554</v>
       </c>
       <c r="H15">
-        <v>6.7068614483725</v>
+        <v>6.701885412207694</v>
       </c>
       <c r="J15">
-        <v>7.842558018980482</v>
+        <v>7.920998369009061</v>
       </c>
       <c r="K15">
-        <v>10.9696512333373</v>
+        <v>10.7353592385662</v>
       </c>
       <c r="L15">
-        <v>5.498296067312436</v>
+        <v>9.642195465122382</v>
       </c>
       <c r="M15">
-        <v>15.0451168419022</v>
+        <v>6.294995276344187</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.484465854693475</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.08504713978748</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.0307876107813</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.74369654856068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.74780882255557</v>
+        <v>16.70195061222086</v>
       </c>
       <c r="C16">
-        <v>9.060099746529335</v>
+        <v>9.279899518560315</v>
       </c>
       <c r="D16">
-        <v>7.586513093413696</v>
+        <v>7.673776450166941</v>
       </c>
       <c r="E16">
-        <v>8.273022782104924</v>
+        <v>8.298261440208664</v>
       </c>
       <c r="F16">
-        <v>17.55335252542631</v>
+        <v>17.24048391882138</v>
       </c>
       <c r="G16">
-        <v>16.83123154878388</v>
+        <v>16.27374943564964</v>
       </c>
       <c r="H16">
-        <v>6.439241293459832</v>
+        <v>6.437257902585451</v>
       </c>
       <c r="J16">
-        <v>7.926273783095766</v>
+        <v>8.17297320233315</v>
       </c>
       <c r="K16">
-        <v>11.17002810429393</v>
+        <v>10.95866505223658</v>
       </c>
       <c r="L16">
-        <v>5.495911116010204</v>
+        <v>9.779191833102502</v>
       </c>
       <c r="M16">
-        <v>14.62841666449174</v>
+        <v>6.43931090592927</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.488725298921787</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.67319635227841</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12.16774164763952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.95946940103696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.41542263953941</v>
+        <v>16.3704107807469</v>
       </c>
       <c r="C17">
-        <v>8.953527121837096</v>
+        <v>9.187985752161188</v>
       </c>
       <c r="D17">
-        <v>7.763771489313267</v>
+        <v>7.840598302634662</v>
       </c>
       <c r="E17">
-        <v>8.762808268799297</v>
+        <v>8.790391112207372</v>
       </c>
       <c r="F17">
-        <v>17.97112346676104</v>
+        <v>17.69417455579764</v>
       </c>
       <c r="G17">
-        <v>17.33294867262072</v>
+        <v>16.48110704111518</v>
       </c>
       <c r="H17">
-        <v>5.68784401903102</v>
+        <v>5.68725193936536</v>
       </c>
       <c r="J17">
-        <v>8.038157938136777</v>
+        <v>8.356585002207732</v>
       </c>
       <c r="K17">
-        <v>11.3770230431632</v>
+        <v>11.15791151181694</v>
       </c>
       <c r="L17">
-        <v>5.624870037474119</v>
+        <v>9.908683796428457</v>
       </c>
       <c r="M17">
-        <v>14.38022128309767</v>
+        <v>6.587932673897222</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.620093681698388</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.4309241334807</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12.41095794774663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.22056817222765</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.21369997307779</v>
+        <v>16.16146234717752</v>
       </c>
       <c r="C18">
-        <v>8.962172417003417</v>
+        <v>9.240371290399276</v>
       </c>
       <c r="D18">
-        <v>8.249929689304626</v>
+        <v>8.329626887160604</v>
       </c>
       <c r="E18">
-        <v>9.859665989309665</v>
+        <v>9.891992020748079</v>
       </c>
       <c r="F18">
-        <v>18.76926606191913</v>
+        <v>18.4764101539469</v>
       </c>
       <c r="G18">
-        <v>18.204180880157</v>
+        <v>17.19747780209619</v>
       </c>
       <c r="H18">
-        <v>4.469766295256171</v>
+        <v>4.469724735044957</v>
       </c>
       <c r="J18">
-        <v>8.187912778349054</v>
+        <v>8.527137124977777</v>
       </c>
       <c r="K18">
-        <v>11.62029593551819</v>
+        <v>11.37315563940625</v>
       </c>
       <c r="L18">
-        <v>5.963846435722385</v>
+        <v>10.05626552616989</v>
       </c>
       <c r="M18">
-        <v>14.25516437505398</v>
+        <v>6.76219746994917</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.958707866473622</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.3151696358293</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12.77539318368905</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.56935722165191</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.13592780759967</v>
+        <v>16.06997441155212</v>
       </c>
       <c r="C19">
-        <v>9.063825730256021</v>
+        <v>9.408740698195691</v>
       </c>
       <c r="D19">
-        <v>8.943735254641108</v>
+        <v>9.034072227193132</v>
       </c>
       <c r="E19">
-        <v>11.42549455105945</v>
+        <v>11.46348098790599</v>
       </c>
       <c r="F19">
-        <v>19.82552767041748</v>
+        <v>19.48492318304951</v>
       </c>
       <c r="G19">
-        <v>19.31999340526803</v>
+        <v>18.21937677133959</v>
       </c>
       <c r="H19">
-        <v>3.111770693117334</v>
+        <v>3.111215664700041</v>
       </c>
       <c r="J19">
-        <v>8.360441620254514</v>
+        <v>8.691088988012014</v>
       </c>
       <c r="K19">
-        <v>11.88786774832917</v>
+        <v>11.59820073066962</v>
       </c>
       <c r="L19">
-        <v>6.54497462502002</v>
+        <v>10.21470157085525</v>
       </c>
       <c r="M19">
-        <v>14.24124329067207</v>
+        <v>6.955057702911482</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.537422266990249</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.31313124524704</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13.21909188513003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.97636416447467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.41052560428454</v>
+        <v>16.31351623899867</v>
       </c>
       <c r="C20">
-        <v>9.415930483993716</v>
+        <v>9.887337122396026</v>
       </c>
       <c r="D20">
-        <v>10.15832294697563</v>
+        <v>10.27964577447377</v>
       </c>
       <c r="E20">
-        <v>14.08823089850946</v>
+        <v>14.13692629487674</v>
       </c>
       <c r="F20">
-        <v>21.54996406236783</v>
+        <v>21.0722377547737</v>
       </c>
       <c r="G20">
-        <v>21.07126553791708</v>
+        <v>20.05440327004014</v>
       </c>
       <c r="H20">
-        <v>2.165222948654775</v>
+        <v>2.156532187947513</v>
       </c>
       <c r="J20">
-        <v>8.59142726991711</v>
+        <v>8.811606773026259</v>
       </c>
       <c r="K20">
-        <v>12.21375298229058</v>
+        <v>11.83439361558888</v>
       </c>
       <c r="L20">
-        <v>7.679181503368005</v>
+        <v>10.3665577741947</v>
       </c>
       <c r="M20">
-        <v>14.53806152271924</v>
+        <v>7.215997661656219</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.663702282154436</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.62852599542782</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.8699699582384</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.52818644725838</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.34800560510859</v>
+        <v>17.22961496257393</v>
       </c>
       <c r="C21">
-        <v>9.9261898853561</v>
+        <v>10.43007490864727</v>
       </c>
       <c r="D21">
-        <v>10.75229641735547</v>
+        <v>10.95401101205101</v>
       </c>
       <c r="E21">
-        <v>14.95013090082433</v>
+        <v>15.02359522580569</v>
       </c>
       <c r="F21">
-        <v>22.09535897457782</v>
+        <v>21.27806142988855</v>
       </c>
       <c r="G21">
-        <v>21.4869609629824</v>
+        <v>22.02722438060338</v>
       </c>
       <c r="H21">
-        <v>2.426366598079716</v>
+        <v>2.397651957903614</v>
       </c>
       <c r="J21">
-        <v>8.545945932411513</v>
+        <v>8.197467979168527</v>
       </c>
       <c r="K21">
-        <v>12.01857672555189</v>
+        <v>11.5037412670656</v>
       </c>
       <c r="L21">
-        <v>8.005036749492829</v>
+        <v>10.09158695971824</v>
       </c>
       <c r="M21">
-        <v>15.3107604294164</v>
+        <v>7.114805629089588</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.972303488444621</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.39536075315649</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.89981566902658</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.32283426293058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.9352095931475</v>
+        <v>17.80551401598933</v>
       </c>
       <c r="C22">
-        <v>10.23742087091564</v>
+        <v>10.75168739709254</v>
       </c>
       <c r="D22">
-        <v>11.07808876426015</v>
+        <v>11.3338979588708</v>
       </c>
       <c r="E22">
-        <v>15.37869406154515</v>
+        <v>15.46959693668854</v>
       </c>
       <c r="F22">
-        <v>22.381803208601</v>
+        <v>21.3298580554037</v>
       </c>
       <c r="G22">
-        <v>21.69767930234037</v>
+        <v>23.3893987025222</v>
       </c>
       <c r="H22">
-        <v>2.586445281403209</v>
+        <v>2.545169497161687</v>
       </c>
       <c r="J22">
-        <v>8.508042714376678</v>
+        <v>7.84131177604346</v>
       </c>
       <c r="K22">
-        <v>11.87880390465819</v>
+        <v>11.26855175379353</v>
       </c>
       <c r="L22">
-        <v>8.158742160406234</v>
+        <v>9.908635532314609</v>
       </c>
       <c r="M22">
-        <v>15.79284793069777</v>
+        <v>7.041412526319554</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.114923662121608</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.87207004661808</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.89713216048143</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.15363130327043</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.62419002453075</v>
+        <v>17.49906833253522</v>
       </c>
       <c r="C23">
-        <v>10.07247233530011</v>
+        <v>10.5905778294472</v>
       </c>
       <c r="D23">
-        <v>10.90532150976111</v>
+        <v>11.12470146782975</v>
       </c>
       <c r="E23">
-        <v>15.1513630362916</v>
+        <v>15.22996590196023</v>
       </c>
       <c r="F23">
-        <v>22.2281842316854</v>
+        <v>21.33254610985908</v>
       </c>
       <c r="G23">
-        <v>21.58327563397896</v>
+        <v>22.46956483465255</v>
       </c>
       <c r="H23">
-        <v>2.501326712874083</v>
+        <v>2.467477799696105</v>
       </c>
       <c r="J23">
-        <v>8.527861791068874</v>
+        <v>8.071688002353032</v>
       </c>
       <c r="K23">
-        <v>11.95263741028777</v>
+        <v>11.40619718862559</v>
       </c>
       <c r="L23">
-        <v>8.077059870164288</v>
+        <v>10.01234465623173</v>
       </c>
       <c r="M23">
-        <v>15.53737548487663</v>
+        <v>7.091795693212147</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.040213056556915</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.62161553994962</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.89756426549298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.26528926912058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.39382511779545</v>
+        <v>16.29556385200111</v>
       </c>
       <c r="C24">
-        <v>9.422321152959967</v>
+        <v>9.900187007302772</v>
       </c>
       <c r="D24">
-        <v>10.2266729660379</v>
+        <v>10.34857619439836</v>
       </c>
       <c r="E24">
-        <v>14.25981090989042</v>
+        <v>14.30890618903612</v>
       </c>
       <c r="F24">
-        <v>21.66272827253262</v>
+        <v>21.18190559848274</v>
       </c>
       <c r="G24">
-        <v>21.19203787041922</v>
+        <v>20.15536756776443</v>
       </c>
       <c r="H24">
-        <v>2.171846313945003</v>
+        <v>2.163146393613914</v>
       </c>
       <c r="J24">
-        <v>8.611724422895319</v>
+        <v>8.834416944325781</v>
       </c>
       <c r="K24">
-        <v>12.24858758538731</v>
+        <v>11.86468557005907</v>
       </c>
       <c r="L24">
-        <v>7.760057172567349</v>
+        <v>10.3883675572108</v>
       </c>
       <c r="M24">
-        <v>14.5297530718927</v>
+        <v>7.240357442228534</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.744463574261802</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.62142128009267</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.92061680979032</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.57601491819739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.95422768995333</v>
+        <v>14.90388904761218</v>
       </c>
       <c r="C25">
-        <v>8.667369058540391</v>
+        <v>8.983395351411641</v>
       </c>
       <c r="D25">
-        <v>9.443942935963246</v>
+        <v>9.54386768803233</v>
       </c>
       <c r="E25">
-        <v>13.23446837298806</v>
+        <v>13.28450445802583</v>
       </c>
       <c r="F25">
-        <v>21.08850628960282</v>
+        <v>20.7116463829982</v>
       </c>
       <c r="G25">
-        <v>20.85592377078365</v>
+        <v>19.78879290720596</v>
       </c>
       <c r="H25">
-        <v>1.800578277134972</v>
+        <v>1.80998832697239</v>
       </c>
       <c r="J25">
-        <v>8.719655481874886</v>
+        <v>8.974089338616654</v>
       </c>
       <c r="K25">
-        <v>12.59970880308733</v>
+        <v>12.2440533897025</v>
       </c>
       <c r="L25">
-        <v>7.402605044955249</v>
+        <v>10.73795231435169</v>
       </c>
       <c r="M25">
-        <v>13.35797537953195</v>
+        <v>7.355230304572887</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.398147135175723</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.43135858346555</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.98773816985434</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.70545109086423</v>
       </c>
     </row>
   </sheetData>
